--- a/SimsigImporter/Template.xlsx
+++ b/SimsigImporter/Template.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukie\source\repos\SimsigImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukie\source\repos\SimsigImporter\SimsigImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C540868E-D60B-440E-9170-E7D3D6A6BE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D3D6B-1041-4DED-AD3D-E93C26D87A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1161C59C-3AE7-4B35-ABC8-2123C8C6623B}"/>
+    <workbookView xWindow="19090" yWindow="-10830" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{1161C59C-3AE7-4B35-ABC8-2123C8C6623B}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Groups" sheetId="1" r:id="rId1"/>
-    <sheet name="Timetable Up" sheetId="3" r:id="rId2"/>
-    <sheet name="Timetable Down" sheetId="4" r:id="rId3"/>
-    <sheet name="Train Types" sheetId="2" r:id="rId4"/>
+    <sheet name="Template" sheetId="3" r:id="rId2"/>
+    <sheet name="Train Types" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -210,6 +209,9 @@
   </si>
   <si>
     <t>INSERTHERE</t>
+  </si>
+  <si>
+    <t>AsRequired</t>
   </si>
 </sst>
 </file>
@@ -306,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -322,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -641,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858847A-F0D3-434C-9565-DB06C73D8860}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -672,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C7610-3C21-45C1-A819-83D8DB5DD38A}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,36 +760,32 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -799,7 +796,9 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -821,7 +820,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -832,7 +831,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -876,7 +875,7 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -953,7 +952,7 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -975,7 +974,7 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -997,11 +996,11 @@
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1019,22 +1018,26 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -1124,34 +1127,34 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -1164,8 +1167,8 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1179,29 +1182,30 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="11"/>
@@ -1214,32 +1218,31 @@
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -1256,17 +1259,18 @@
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
@@ -1281,20 +1285,20 @@
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -1315,8 +1319,14 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,747 +1335,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F9D0A2-ADCA-4890-BA88-64C3FB71B5B9}">
-  <dimension ref="A1:L77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H33:J54">
-    <sortCondition descending="1" ref="H33:H54"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC83C6B9-C911-4BD1-AE44-69CB7FDC537F}">
   <dimension ref="A1:X27"/>
   <sheetViews>
